--- a/data_route.xlsx
+++ b/data_route.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qminh\Documents\GitHub\Routing_optimization\V1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qminh\Documents\MyData\Gosei\Routing_optimization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5708AD9-5080-4079-AEBB-AA7C25610852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7DD219C-F2A0-4044-86D3-35DD0F6741DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4215" yWindow="3120" windowWidth="21600" windowHeight="11295" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4560" yWindow="3465" windowWidth="21600" windowHeight="11295" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DriverWaitTimeCost" sheetId="1" r:id="rId1"/>
@@ -37586,7 +37586,7 @@
         <v>44776.447916666664</v>
       </c>
       <c r="C34" s="3">
-        <f t="shared" ref="C34:C65" si="1">B34+5/24</f>
+        <f t="shared" ref="C34:C51" si="1">B34+5/24</f>
         <v>44776.65625</v>
       </c>
       <c r="D34" s="7">
@@ -37961,7 +37961,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37986,7 +37986,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="7">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="C2">
         <v>2</v>
@@ -37997,7 +37997,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="7">
-        <v>400</v>
+        <v>275</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -38008,7 +38008,7 @@
         <v>16</v>
       </c>
       <c r="B4" s="7">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="C4">
         <v>4</v>
